--- a/scraped_data.xlsx
+++ b/scraped_data.xlsx
@@ -447,7 +447,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.85546875" customWidth="1"/>
-    <col min="2" max="2" width="53.28515625" customWidth="1"/>
+    <col min="2" max="2" width="65" customWidth="1"/>
     <col min="3" max="3" width="48" customWidth="1"/>
   </cols>
   <sheetData>
